--- a/flink/performance measures.xlsx
+++ b/flink/performance measures.xlsx
@@ -407,29 +407,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="14" width="5.7109375" customWidth="1"/>
+    <col min="2" max="15" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -445,11 +445,11 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
@@ -457,11 +457,11 @@
       <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="K2" s="2">
-        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>20</v>
@@ -469,81 +469,87 @@
       <c r="M2" s="2">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>565.44799999999998</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
+        <v>523.58600000000001</v>
+      </c>
+      <c r="D3" s="2">
         <v>84.8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>71.685000000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>115.098</v>
       </c>
-      <c r="F3" s="2">
-        <f>SUM(C3:E3)/3</f>
+      <c r="G3" s="2">
+        <f>SUM(D3:F3)/3</f>
         <v>90.527666666666676</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>36.9</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>43.210999999999999</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>56.427999999999997</v>
       </c>
-      <c r="J3" s="2">
-        <f>SUM(G3:I3)/3</f>
+      <c r="K3" s="2">
+        <f>SUM(H3:J3)/3</f>
         <v>45.512999999999998</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>41.887999999999998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>38.642000000000003</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>34.951999999999998</v>
       </c>
-      <c r="N3" s="2">
-        <f>SUM(K3:M3)/3</f>
+      <c r="O3" s="2">
+        <f>SUM(L3:N3)/3</f>
         <v>38.494</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>19.600000000000001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14.4</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>13.6</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>13.7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flink/performance measures.xlsx
+++ b/flink/performance measures.xlsx
@@ -7,22 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Performance" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>5 Durchschnitt</t>
   </si>
@@ -33,23 +25,59 @@
     <t>20 Durchschnitt</t>
   </si>
   <si>
-    <t>Tabelle</t>
-  </si>
-  <si>
     <t>fd_reduced_15.csv</t>
   </si>
   <si>
-    <t>15 columns, 25000 rows</t>
-  </si>
-  <si>
-    <t>time cluster</t>
+    <t>nc_voter1k.csv</t>
+  </si>
+  <si>
+    <t>1 Durchschnitt</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>FLINK</t>
+  </si>
+  <si>
+    <t>SPARK</t>
+  </si>
+  <si>
+    <t>Flink vs Spark</t>
+  </si>
+  <si>
+    <t>nc_voter1k</t>
+  </si>
+  <si>
+    <t>&gt;1,5 h</t>
+  </si>
+  <si>
+    <t>SPARK nc_voter1k.csv</t>
+  </si>
+  <si>
+    <t>FLINK: nc_voter1k.csv</t>
+  </si>
+  <si>
+    <t>FLINK: fd_reduced_15.csv</t>
+  </si>
+  <si>
+    <t>1 core</t>
+  </si>
+  <si>
+    <t>10 cores</t>
+  </si>
+  <si>
+    <t>5 cores</t>
+  </si>
+  <si>
+    <t>20 cores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,21 +85,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -101,11 +127,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -118,6 +148,583 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLINK: fd_reduced_15.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 cores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 cores</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>550.47233333333338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.527666666666676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>38.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLINK: nc_voter1k.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 cores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 cores</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>62.389000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.311333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.291333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>15.590333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPARK nc_voter1k.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$B$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 core</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 cores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 cores</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20 cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>497.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>72.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="66140032"/>
+        <c:axId val="66141568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="66140032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66141568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66141568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66140032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLINK: fd_reduced_15.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$C$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 cores</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 cores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>90.527666666666676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>38.494</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLINK: nc_voter1k.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$C$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 cores</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 cores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$C$16:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29.311333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.291333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>15.590333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SPARK nc_voter1k.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$C$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5 cores</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10 cores</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20 cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>137.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>72.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="69251840"/>
+        <c:axId val="69253376"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69251840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69253376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69253376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69251840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,175 +1014,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="15" width="5.7109375" customWidth="1"/>
+    <col min="2" max="17" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>565.44799999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>562.38300000000004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>523.58600000000001</v>
+      </c>
+      <c r="E3" s="4">
+        <f>SUM(B3:D3)/3</f>
+        <v>550.47233333333338</v>
+      </c>
+      <c r="F3" s="1">
+        <v>84.8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>71.685000000000002</v>
+      </c>
+      <c r="H3" s="1">
+        <v>115.098</v>
+      </c>
+      <c r="I3" s="3">
+        <f>SUM(F3:H3)/3</f>
+        <v>90.527666666666676</v>
+      </c>
+      <c r="J3" s="1">
+        <v>36.9</v>
+      </c>
+      <c r="K3" s="1">
+        <v>43.210999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>56.427999999999997</v>
+      </c>
+      <c r="M3" s="3">
+        <f>SUM(J3:L3)/3</f>
+        <v>45.512999999999998</v>
+      </c>
+      <c r="N3" s="1">
+        <v>41.887999999999998</v>
+      </c>
+      <c r="O3" s="1">
+        <v>38.642000000000003</v>
+      </c>
+      <c r="P3" s="1">
+        <v>34.951999999999998</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>SUM(N3:P3)/3</f>
+        <v>38.494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>63.091000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>62.896999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>61.179000000000002</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4" si="0">SUM(B4:D4)/3</f>
+        <v>62.389000000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30.29</v>
+      </c>
+      <c r="G4" s="1">
+        <v>27.811</v>
+      </c>
+      <c r="H4" s="1">
+        <v>29.832999999999998</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4" si="1">SUM(F4:H4)/3</f>
+        <v>29.311333333333334</v>
+      </c>
+      <c r="J4" s="1">
+        <v>19.622</v>
+      </c>
+      <c r="K4" s="1">
+        <v>19.396999999999998</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.855</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4" si="2">SUM(J4:L4)/3</f>
+        <v>19.291333333333331</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15.497</v>
+      </c>
+      <c r="O4" s="1">
+        <v>14.704000000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4" si="3">SUM(N4:P4)/3</f>
+        <v>15.590333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4">
+        <f>SUM(B6:D6)/3</f>
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
+        <f>SUM(F6:H6)/3</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="3">
+        <f>SUM(J6:L6)/3</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>SUM(N6:P6)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>497</v>
+      </c>
+      <c r="C7" s="1">
+        <v>499</v>
+      </c>
+      <c r="D7" s="1">
+        <v>497</v>
+      </c>
+      <c r="E7" s="4">
+        <f>SUM(B7:D7)/3</f>
+        <v>497.66666666666669</v>
+      </c>
+      <c r="F7" s="1">
+        <v>131</v>
+      </c>
+      <c r="G7" s="1">
+        <v>131</v>
+      </c>
+      <c r="H7" s="1">
+        <v>151</v>
+      </c>
+      <c r="I7" s="3">
+        <f>SUM(F7:H7)/3</f>
+        <v>137.66666666666666</v>
+      </c>
+      <c r="J7" s="1">
+        <v>98</v>
+      </c>
+      <c r="K7" s="1">
+        <v>99</v>
+      </c>
+      <c r="L7" s="1">
+        <v>89</v>
+      </c>
+      <c r="M7" s="3">
+        <f>SUM(J7:L7)/3</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="N7" s="1">
+        <v>71</v>
+      </c>
+      <c r="O7" s="1">
+        <v>71</v>
+      </c>
+      <c r="P7" s="1">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>SUM(N7:P7)/3</f>
+        <v>72.666666666666671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="I2" s="2">
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2">
-        <v>20</v>
-      </c>
-      <c r="M2" s="2">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>4</v>
+      <c r="B12">
+        <f>E7/E4</f>
+        <v>7.9768335230035206</v>
+      </c>
+      <c r="C12">
+        <f>I7/I4</f>
+        <v>4.6967043464416491</v>
+      </c>
+      <c r="D12">
+        <f>M7/M4</f>
+        <v>4.9417700521823278</v>
+      </c>
+      <c r="E12">
+        <f>Q7/Q4</f>
+        <v>4.6610078895041802</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>565.44799999999998</v>
-      </c>
-      <c r="C3" s="3">
-        <v>523.58600000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>84.8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>71.685000000000002</v>
-      </c>
-      <c r="F3" s="2">
-        <v>115.098</v>
-      </c>
-      <c r="G3" s="2">
-        <f>SUM(D3:F3)/3</f>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <f>E3</f>
+        <v>550.47233333333338</v>
+      </c>
+      <c r="C15">
+        <f>I3</f>
         <v>90.527666666666676</v>
       </c>
-      <c r="H3" s="2">
-        <v>36.9</v>
-      </c>
-      <c r="I3" s="2">
-        <v>43.210999999999999</v>
-      </c>
-      <c r="J3" s="2">
-        <v>56.427999999999997</v>
-      </c>
-      <c r="K3" s="2">
-        <f>SUM(H3:J3)/3</f>
+      <c r="D15">
+        <f>M3</f>
         <v>45.512999999999998</v>
       </c>
-      <c r="L3" s="2">
-        <v>41.887999999999998</v>
-      </c>
-      <c r="M3" s="2">
-        <v>38.642000000000003</v>
-      </c>
-      <c r="N3" s="2">
-        <v>34.951999999999998</v>
-      </c>
-      <c r="O3" s="2">
-        <f>SUM(L3:N3)/3</f>
+      <c r="E15" s="7">
+        <f>Q3</f>
         <v>38.494</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>15.5</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="L4">
-        <v>14.4</v>
-      </c>
-      <c r="M4">
-        <v>13.6</v>
-      </c>
-      <c r="N4">
-        <v>13.7</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <f>E4</f>
+        <v>62.389000000000003</v>
+      </c>
+      <c r="C16">
+        <f>I4</f>
+        <v>29.311333333333334</v>
+      </c>
+      <c r="D16">
+        <f>M4</f>
+        <v>19.291333333333331</v>
+      </c>
+      <c r="E16" s="7">
+        <f>Q4</f>
+        <v>15.590333333333334</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <f>E7</f>
+        <v>497.66666666666669</v>
+      </c>
+      <c r="C17">
+        <f>I7</f>
+        <v>137.66666666666666</v>
+      </c>
+      <c r="D17">
+        <f>M7</f>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="E17" s="7">
+        <f>Q7</f>
+        <v>72.666666666666671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/flink/performance measures.xlsx
+++ b/flink/performance measures.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -61,16 +61,16 @@
     <t>FLINK: fd_reduced_15.csv</t>
   </si>
   <si>
-    <t>1 core</t>
-  </si>
-  <si>
-    <t>10 cores</t>
-  </si>
-  <si>
-    <t>5 cores</t>
-  </si>
-  <si>
-    <t>20 cores</t>
+    <t>FLINK: ncvoter1k</t>
+  </si>
+  <si>
+    <t>FLINK: ncvoter100k</t>
+  </si>
+  <si>
+    <t>FLINK: ncvoter10k</t>
+  </si>
+  <si>
+    <t>&gt;70min</t>
   </si>
 </sst>
 </file>
@@ -188,24 +188,25 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Performance!$B$14:$E$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 core</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 cores</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10 cores</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20 cores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -248,24 +249,25 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Performance!$B$14:$E$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 core</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 cores</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10 cores</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20 cores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -308,24 +310,25 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Performance!$B$14:$E$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 core</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5 cores</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10 cores</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20 cores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -360,20 +363,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66140032"/>
-        <c:axId val="66141568"/>
+        <c:axId val="105020800"/>
+        <c:axId val="105022592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66140032"/>
+        <c:axId val="105020800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66141568"/>
+        <c:crossAx val="105022592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -381,7 +385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66141568"/>
+        <c:axId val="105022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -392,7 +396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66140032"/>
+        <c:crossAx val="105020800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -452,21 +456,22 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Performance!$C$14:$E$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5 cores</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 cores</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 cores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -506,21 +511,22 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Performance!$C$14:$E$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5 cores</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 cores</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 cores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -560,21 +566,22 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Performance!$C$14:$E$14</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5 cores</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10 cores</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20 cores</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -606,20 +613,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69251840"/>
-        <c:axId val="69253376"/>
+        <c:axId val="105044224"/>
+        <c:axId val="105582592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69251840"/>
+        <c:axId val="105044224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69253376"/>
+        <c:crossAx val="105582592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -627,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69253376"/>
+        <c:axId val="105582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69251840"/>
+        <c:crossAx val="105044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1014,14 +1022,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1349,17 +1358,17 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1404,7 +1413,7 @@
         <v>15.590333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1423,6 +1432,59 @@
       <c r="E17" s="7">
         <f>Q7</f>
         <v>72.666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>450</v>
+      </c>
+      <c r="F26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/flink/performance measures.xlsx
+++ b/flink/performance measures.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="Spark" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>5 Durchschnitt</t>
   </si>
@@ -71,6 +72,78 @@
   </si>
   <si>
     <t>&gt;70min</t>
+  </si>
+  <si>
+    <t>ncvoter1k</t>
+  </si>
+  <si>
+    <t>ncvoter10k</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>iterations</t>
+  </si>
+  <si>
+    <t>candidates to check</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>candidates</t>
+  </si>
+  <si>
+    <t>isEmptyCheck</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>no unpersist</t>
+  </si>
+  <si>
+    <t>cache before unpersist</t>
+  </si>
+  <si>
+    <t>15c</t>
+  </si>
+  <si>
+    <t>nvoter20k</t>
+  </si>
+  <si>
+    <t>ncvoter20k</t>
+  </si>
+  <si>
+    <t>ncvoter30k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>fd_reduced</t>
+  </si>
+  <si>
+    <t>fd reduced</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>&gt;12*60</t>
+  </si>
+  <si>
+    <t>etwa 2 h</t>
   </si>
 </sst>
 </file>
@@ -363,11 +436,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105020800"/>
-        <c:axId val="105022592"/>
+        <c:axId val="159818496"/>
+        <c:axId val="159820032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105020800"/>
+        <c:axId val="159818496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105022592"/>
+        <c:crossAx val="159820032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -385,7 +458,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105022592"/>
+        <c:axId val="159820032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105020800"/>
+        <c:crossAx val="159818496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,11 +686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105044224"/>
-        <c:axId val="105582592"/>
+        <c:axId val="160583040"/>
+        <c:axId val="160584832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105044224"/>
+        <c:axId val="160583040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105582592"/>
+        <c:crossAx val="160584832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -635,7 +708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105582592"/>
+        <c:axId val="160584832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,14 +719,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105044224"/>
+        <c:crossAx val="160583040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1024,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,4 +1564,846 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>20</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>266.5</v>
+      </c>
+      <c r="C3">
+        <v>329</v>
+      </c>
+      <c r="D3">
+        <v>348</v>
+      </c>
+      <c r="F3">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>166601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>20000</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>30000</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>250000</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>171</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>969</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>3512</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>9087</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>17685</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>26591</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>31601</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>19</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>30045</v>
+      </c>
+      <c r="D31">
+        <v>42</v>
+      </c>
+      <c r="E31">
+        <v>39</v>
+      </c>
+      <c r="F31">
+        <v>31</v>
+      </c>
+      <c r="G31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>22913</v>
+      </c>
+      <c r="D32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F32">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>13952</v>
+      </c>
+      <c r="D33">
+        <v>1.4</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>6708</v>
+      </c>
+      <c r="D34">
+        <v>1.7</v>
+      </c>
+      <c r="E34">
+        <v>1.7</v>
+      </c>
+      <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>2497</v>
+      </c>
+      <c r="D35">
+        <v>1.8</v>
+      </c>
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>696</v>
+      </c>
+      <c r="D36">
+        <v>1.9</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>137</v>
+      </c>
+      <c r="D37">
+        <v>1.9</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>1.9</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <f>1.6*60</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <f>1.4*60</f>
+        <v>84</v>
+      </c>
+      <c r="F50">
+        <f>2.7*60</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <f>1.9*60</f>
+        <v>114</v>
+      </c>
+      <c r="F51">
+        <f>3.8 * 60</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <f>1.9*60</f>
+        <v>114</v>
+      </c>
+      <c r="F52">
+        <f>4.2*60</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <f>1.6*60</f>
+        <v>96</v>
+      </c>
+      <c r="F53">
+        <f>3.6*60</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <f>2.5*60</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <f>1.4*60</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+      <c r="D63">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <f>2.8*60</f>
+        <v>168</v>
+      </c>
+      <c r="D66">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <f>5.9*60</f>
+        <v>354</v>
+      </c>
+      <c r="D67">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <f>14*60</f>
+        <v>840</v>
+      </c>
+      <c r="D68">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f>1439/60</f>
+        <v>23.983333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>